--- a/biology/Botanique/Tachia_guianensis/Tachia_guianensis.xlsx
+++ b/biology/Botanique/Tachia_guianensis/Tachia_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tachia guianensis est une  espèce d'arbuste myrmécophile, endémique des Guyanes, appartenant à la famille des Gentianaceae. Il s'agit de l'espèce type du genre Tachia Aubl..
-Le nom Tachia provient du nom Galibi, qui désigne les fourmis tachi qui vivent dans ses tiges creuses[3].
-On l'appelle en Guyane Tachy[4] ou Mahot noir (créole)[5] [à ne pas confondre avec les Eschweilera spp. également appelés ainsi], et au Guyana loaro-ek, karakalidan (Arawak)[6], guianan tachia (anglais)[7], taquia da Guiana (Portugais)[8], tachia de Guiana (espagnol)[9], alawai, wara-ek[10]. On rapporte aussi les noms de caferana[11], Raiz de jacaré-arú Caferana[12] en Amazonie et Quassia do Para au Brésil[4].
+Le nom Tachia provient du nom Galibi, qui désigne les fourmis tachi qui vivent dans ses tiges creuses.
+On l'appelle en Guyane Tachy ou Mahot noir (créole) [à ne pas confondre avec les Eschweilera spp. également appelés ainsi], et au Guyana loaro-ek, karakalidan (Arawak), guianan tachia (anglais), taquia da Guiana (Portugais), tachia de Guiana (espagnol), alawai, wara-ek. On rapporte aussi les noms de caferana, Raiz de jacaré-arú Caferana en Amazonie et Quassia do Para au Brésil.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tachia guianensis est un arbuste ou petit arbre ramifié atteignant jusqu'à 5 m de haut.
 Ses branches sont cylindriques (parfois légèrement striées mais non ailées), mesurant 0,3-0,5 cm de diamètre, avec des entre-nœuds longs de (4-)5-9(-10) cm.
@@ -527,7 +541,7 @@
 L'exine du pollen est réticulée.
 Le pistil est long de 56-63 mm, avec l'ovaire de 8,5 mm, et le style d'environ 52 mm, et les lobes du stigmate mesurant 3-4 x 1,5-2 mm.
 Le Fruit érigé, de forme elliptique, de couleur verte, jaune à orange et brun, mesure 35-43 x 5-6 mm.
-Les graines ne sont pas visibles[5],[10],[13],[6].
+Les graines ne sont pas visibles.
 </t>
         </is>
       </c>
@@ -556,9 +570,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La répartition de Tachia guianensis est limitée à l'est du bouclier guyanais et n'est présent que dans les Guyanes[6]. En dehors de cette répartition, il est souvent confondu avec d'autres espèces du même genre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La répartition de Tachia guianensis est limitée à l'est du bouclier guyanais et n'est présent que dans les Guyanes. En dehors de cette répartition, il est souvent confondu avec d'autres espèces du même genre.
 </t>
         </is>
       </c>
@@ -587,12 +603,14 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tachia guianensis croît le plus souvent dans les forêts inondées ou de terre ferme, sur sable blanc ou brun limoneux, du gravier et des roches, du granit ou du grès, parfois sur des sols latéritiques et sur les berges des rivières, à des altitudes allant du niveau de la mer (20 m) à 1 100 m (Mont Ayanganna)[6].
-Les fleurs inodores[6] sont pollinisées par plusieurs espèces de colibris[10].
-Tachia guianensis est une "myrmécophyte non spécialisée" pouvant abriter plusieurs espèces mutualistes (37 espèces de fourmis différentes ont été trouvées sur cette plante). Certaines espèces vivent dans ses tiges creuses. La guilde des fourmis associées à cette espèce est complexe[14],[15]. En saison des pluies, Tachia guianensis assimile l'azote issue de la décomposition des déchets (riches en champignons[16]) produits par les fourmis[17].
-La structure de son bois a été étudiée[18], ainsi que ses orbicules (ultrastructures cellulaires)[19].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tachia guianensis croît le plus souvent dans les forêts inondées ou de terre ferme, sur sable blanc ou brun limoneux, du gravier et des roches, du granit ou du grès, parfois sur des sols latéritiques et sur les berges des rivières, à des altitudes allant du niveau de la mer (20 m) à 1 100 m (Mont Ayanganna).
+Les fleurs inodores sont pollinisées par plusieurs espèces de colibris.
+Tachia guianensis est une "myrmécophyte non spécialisée" pouvant abriter plusieurs espèces mutualistes (37 espèces de fourmis différentes ont été trouvées sur cette plante). Certaines espèces vivent dans ses tiges creuses. La guilde des fourmis associées à cette espèce est complexe,. En saison des pluies, Tachia guianensis assimile l'azote issue de la décomposition des déchets (riches en champignons) produits par les fourmis.
+La structure de son bois a été étudiée, ainsi que ses orbicules (ultrastructures cellulaires).
 </t>
         </is>
       </c>
@@ -621,12 +639,14 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tachia guianensis fait partie des plantes médicinales amazoniennes décrites par C.F.P. von Martius au XIXe siècle. Il disait ses racines « extrêmement amères, toniques, incisives, fièvres intermittentes »[12]
-De même, en 1897, Heckel rapporte sur Tachia guianensis : « Racines excessivement amères et fébrifuges. (A étudier comparativement avec les Gentianées indigènes de France et avec les plantes coloniales appartenant à la même famille). C'est le Quassia do Para des Brésiliens. »[4].
-Tachia guianensis est traditionnellement utilisé en infusion contre la fièvre et la malaria[20],[21],[22],[23], [24], [25], [26], [27] et son activité anti-paludéenne a été étudiée[28],[29].
-Tachia guianensis pourrait avoir des effets sur le système nerveux central[30].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tachia guianensis fait partie des plantes médicinales amazoniennes décrites par C.F.P. von Martius au XIXe siècle. Il disait ses racines « extrêmement amères, toniques, incisives, fièvres intermittentes »
+De même, en 1897, Heckel rapporte sur Tachia guianensis : « Racines excessivement amères et fébrifuges. (A étudier comparativement avec les Gentianées indigènes de France et avec les plantes coloniales appartenant à la même famille). C'est le Quassia do Para des Brésiliens. ».
+Tachia guianensis est traditionnellement utilisé en infusion contre la fièvre et la malaria , , ,  et son activité anti-paludéenne a été étudiée,.
+Tachia guianensis pourrait avoir des effets sur le système nerveux central.
 </t>
         </is>
       </c>
@@ -655,9 +675,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet en a proposé le protologue suivant[3] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet en a proposé le protologue suivant : 
 « 1. TACHIA Guianenſis. (TABULA 29.) 
 Frutex, trunco quinque aut ſex-pedali, ramos plures, ſarmentoſos, oppoſitos, nodoſos, tubuloſos, tetragonos emittente. Folia oppoſita, ovata, acuta, glabra, integerrima, ſubſeſſilia, caulem amplectentia, &amp; vaginantia. Flores utrinque axillares, ſolitarii. Corolla lutea. Uno alterove flore abortiente, gutta flava, ſicca, reſinoſa reperitur.
 In cavitate trunci &amp; ramorum plurimæ degunt formica:, undè TACHI vocatur à Caribaris Galibienſibus, ſeu nidus formicarum.
